--- a/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/report-check-in-detail.xlsx
+++ b/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/report-check-in-detail.xlsx
@@ -4,20 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="7995"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="hai" sheetId="1" r:id="rId1"/>
+    <sheet name="LICH CONG VIEC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>KẾ HOẠCH CHĂM SÓC KHÁCH HÀNG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CHI NHÁNH</t>
   </si>
@@ -25,28 +22,46 @@
     <t>MANV</t>
   </si>
   <si>
-    <t>TEN NHAN VIEN</t>
+    <t>KẾ HOẠCH</t>
+  </si>
+  <si>
+    <t>THỰC HIỆN</t>
+  </si>
+  <si>
+    <t>ĐÁNH GIÁ</t>
+  </si>
+  <si>
+    <t>NGÀY NGHỈ / HỌP CHI NHÁNH</t>
   </si>
   <si>
     <t>LOẠI CÔNG VIỆC</t>
   </si>
   <si>
-    <t xml:space="preserve">THỜI GIAN </t>
+    <t>THỜI GIAN</t>
   </si>
   <si>
     <t>MÃ ĐẠI LÝ</t>
   </si>
   <si>
-    <t>TEN DAI LY</t>
-  </si>
-  <si>
-    <t>KẾ HOẠCH</t>
-  </si>
-  <si>
-    <t>THỰC HIỆN</t>
-  </si>
-  <si>
-    <t>ĐÁNH GIÁ</t>
+    <t>TÊN ĐẠI LÝ</t>
+  </si>
+  <si>
+    <t>TÊN NHÂN VIÊN</t>
+  </si>
+  <si>
+    <t>THỜI GIAN VÀO</t>
+  </si>
+  <si>
+    <t>THỜI GIAN RA</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>NGÀY TRONG TUẦN</t>
   </si>
 </sst>
 </file>
@@ -64,18 +79,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,36 +175,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,126 +505,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I7:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14" style="9" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="6" customWidth="1"/>
+    <col min="4" max="5" width="27.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="31" style="9" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+    <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>